--- a/biology/Botanique/Mimosa_tenuiflora/Mimosa_tenuiflora.xlsx
+++ b/biology/Botanique/Mimosa_tenuiflora/Mimosa_tenuiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mimosa tenuiflora, ou Mimosa hostilis, est une espèce de petit arbre ou arbuste de la famille des Fabacées (genre Mimosa) qui pousse en Amérique centrale et dans le nord-est du Brésil. Il est connu dans le monde médical pour ses propriétés régénératrices du tissu épidermique[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mimosa tenuiflora, ou Mimosa hostilis, est une espèce de petit arbre ou arbuste de la famille des Fabacées (genre Mimosa) qui pousse en Amérique centrale et dans le nord-est du Brésil. Il est connu dans le monde médical pour ses propriétés régénératrices du tissu épidermique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acacia hostilis Mart.
 Acacia tenuiflora Willd.
@@ -545,12 +559,14 @@
           <t>Chimie et pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mimosa tenuiflora contient différents alcaloïdes dont de la diméthyltryptamine[4], ainsi que des tanins[5].
-Connu comme plante médicinale traditionnelle sous le nom de « tepezcohuite »[6], ses racines et son écorce sont utilisées en usage externe pour soigner les plaies et les ulcères cutanées[7],[8]. Il serait aussi utilisé pour traiter des douleurs dentaires[9].
-Absorbée en décoction comme breuvage, la plante exerce des effets hallucinogènes[7],[10].
-Les propriétés tératogènes des graines et des feuilles ont été constatées en laboratoire[11] et par l'étude de son utilisation en fourrage[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mimosa tenuiflora contient différents alcaloïdes dont de la diméthyltryptamine, ainsi que des tanins.
+Connu comme plante médicinale traditionnelle sous le nom de « tepezcohuite », ses racines et son écorce sont utilisées en usage externe pour soigner les plaies et les ulcères cutanées,. Il serait aussi utilisé pour traiter des douleurs dentaires.
+Absorbée en décoction comme breuvage, la plante exerce des effets hallucinogènes,.
+Les propriétés tératogènes des graines et des feuilles ont été constatées en laboratoire et par l'étude de son utilisation en fourrage.
 </t>
         </is>
       </c>
@@ -579,10 +595,12 @@
           <t>Utilisation en catastrophe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la vallée de Mexico, un dépôt de gaz explose en 1984, faisant plusieurs centaines de victimes.
-À cette occasion, la poudre d'écorce de Mimosae tenuiflora ou tepezcohuite est largement utilisée de façon empirique sur les brûlures avec de bons résultats (meilleure cicatrisation) sur les blessés. L'existence d'une plante mexicaine « miraculeuse » est alors révélée par les médias internationaux, ce qui suscite un engouement commercial mondial, avec mise en vente de divers produits dérivés à propriétés médicinales supposées[13],[14]. 
+À cette occasion, la poudre d'écorce de Mimosae tenuiflora ou tepezcohuite est largement utilisée de façon empirique sur les brûlures avec de bons résultats (meilleure cicatrisation) sur les blessés. L'existence d'une plante mexicaine « miraculeuse » est alors révélée par les médias internationaux, ce qui suscite un engouement commercial mondial, avec mise en vente de divers produits dérivés à propriétés médicinales supposées,. 
 </t>
         </is>
       </c>
